--- a/Noise_remover/tweets_processados_ingles.xlsx
+++ b/Noise_remover/tweets_processados_ingles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.923210210442654e+18</v>
+        <v>1.933908973800858e+18</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>@beIiebws amoxilina pura</t>
+          <t>@BrazillianGems Mds phosss 🗣</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>May 16, 2025 at 02:53 AM</t>
+          <t>June 14, 2025 at 03:26 PM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> amoxilina pura</t>
+          <t xml:space="preserve"> mds phosss </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.921744554807493e+18</v>
+        <v>1.932981382709457e+18</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>@lovequinnkid @wtfbunny_ Foi a amoxilina best</t>
+          <t>AI TO COM INFECÇÃO URINARIA DE NOVO https://t.co/FrPPs09hCG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>May 12, 2025 at 01:49 AM</t>
+          <t>June 12, 2025 at 02:00 AM</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> foi a amoxilina best</t>
+          <t xml:space="preserve">ai to com infecção urinaria de novo </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,24 +512,1175 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.915490936328524e+18</v>
+        <v>1.932497257917489e+18</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>@yooncits oi biboto</t>
+          <t>@sweedern Tacom infeccao urinaria</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>April 24, 2025 at 07:40 PM</t>
+          <t>June 10, 2025 at 05:57 PM</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> oi biboto</t>
+          <t xml:space="preserve"> tacom infeccao urinaria</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.930640943117427e+18</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>@Sealyne_ I have a genuine question, why is Niko so fucking ugly? Did he have a flaw when he was born or is he just like that?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>June 5, 2025 at 03:00 PM</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> i have a genuine question why is niko so fucking ugly did he have a flaw when he was born or is he just like that </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.930280710675317e+18</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>@akillerself TJR,AGR TO COM SUSPEITA DE INFECÇÃO NO RIM DPS DE INFECÇÃO URINÁRIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>June 4, 2025 at 03:09 PM</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> tjr agr to com suspeita de infecção no rim dps de infecção urinária</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.928195306413281e+18</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>@CantFaceMyself @kyoruyeye Dont do this with yourself...</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>May 29, 2025 at 09:02 PM</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dont do this with yourself </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.927525591021929e+18</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>@Hoshiz_lain Canetou hoshi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>May 28, 2025 at 12:41 AM</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> canetou hosh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.924630445423018e+18</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>@tesaodawanviva @Hoshiz_lain @justjeiqq @Yuuy_hi @Erikat_1 @neurosinhojr @Gustavo4Cabral @dkpeaks_ @IgorKaslana @englotinh @hikky_6 @rachanuvs @flayrock0421 @joycanalha @Isareis02 @LUISFELIPESC411 @Ryderkkkj @RoyKL64 @barkhornnn @8nigiri @aguamortas @bocchizinhas @BrazillianGems @dantesudinho Btw eu e vc Hoshi beijooo https://t.co/EOIhHA00RW</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>May 20, 2025 at 12:57 AM</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> nigiri btw eu e vc hoshi beijooo </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.924629833012679e+18</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>@tesaodawanviva @Hoshiz_lain @justjeiqq @Yuuy_hi @Erikat_1 @neurosinhojr @Gustavo4Cabral @dkpeaks_ @IgorKaslana @englotinh @hikky_6 @rachanuvs @flayrock0421 @joycanalha @Isareis02 @LUISFELIPESC411 @Ryderkkkj @RoyKL64 @barkhornnn O negocio e marcar pessoas aleatorias hoshi @8nigiri @aguamortas @bocchizinhas @BrazillianGems @dantesudinho</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>May 20, 2025 at 12:54 AM</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> o negocio e marcar pessoas aleatorias hoshi nigiri </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.921748941101585e+18</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>@hajimeself you literally said: https://t.co/xsE2H3zOGQ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>May 12, 2025 at 02:07 AM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you literally said </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.921581936037782e+18</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>@Hoshiz_lain mds hoshi somos irmoes😭😭😭😭😭😭😭</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>May 11, 2025 at 03:03 PM</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> mds hoshi somos irmoes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.920442896941028e+18</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>@sandwichhbread Man...</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>May 8, 2025 at 11:37 AM</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.91904523038224e+18</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>@Lainhoshiz @Erikat_1 @flayrock0421 @hikky_6 Esse anime parece interessante pra mim agora...</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>May 4, 2025 at 03:03 PM</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> esse anime parece interessante pra mim agora </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.918421006047175e+18</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>@Lainhoshiz Aff Hoshi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>May 2, 2025 at 09:43 PM</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> aff hosh</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.917728868577821e+18</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>@Loccdawggg damn she could have died with that tupid "joke"</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>April 30, 2025 at 11:52 PM</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> damn she could have died with that tupid "joke"</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.914890872383996e+18</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>@arthurdogas @BLOODOFBEAST KAJQJEJAJJWJQNWMQMAMMW A CURA DO T.A</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>April 23, 2025 at 03:55 AM</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> kajqjejajjwjqnwmqmammw a cura do t a</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.914513466829706e+18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>@updatecharts ah ela vai achar</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>April 22, 2025 at 02:55 AM</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ah ela vai achar</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.91350059671328e+18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EU ODEIO TER INFECÇÃO URINÁRIA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>April 19, 2025 at 07:51 AM</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>eu odeio ter infecção urinária</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.910116639971947e+18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>@LeticiaFrost0 AMIGA,LITERALMENTE,INFECÇÃO URINÁRIA E A MINHA MELHOR AMIGA,EU LEMBRO DE TER PEGADO EM 2019 E TOMEI ANTIBIOTICO E TAL,PENSEI TER MELHORADO MAS QUABDO INTERNEI EM JUNHO DE 2024 DESCOBRI Q EU AINDA ESTAVA COM INFECÇÃO URINARIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>April 9, 2025 at 11:44 PM</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> amiga literalmente infecção urinária e a minha melhor amiga eu lembro de ter pegado em  e tomei antibiotico e tal pensei ter melhorado mas quabdo internei em junho de  descobri q eu ainda estava com infecção urinaria</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.910050343754363e+18</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>@Ollie74278791 PORQUE VOCE TEM INFECÇÃO URINARIA NO NOME 😭😭😭😭😭😭</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>April 9, 2025 at 07:21 PM</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> porque voce tem infecção urinaria no nome </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.909335324158731e+18</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>@tivent_1 Why chichan is bald??</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>April 7, 2025 at 07:59 PM</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> why chichan is bald </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.907978788756976e+18</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Check out CRANBERRY INTEIRO 1KG COMBATE A INFECÇÃO URINÁRIA for R$90,00. Get it on Shopee now! https://t.co/OasOP0MySq #ShopeeBR</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>April 4, 2025 at 02:09 AM</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">check out cranberry inteiro kg combate a infecção urinária for r   get it on shopee now </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.907819659493049e+18</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TO COM INFECÇÃO URINÁRIA NESSE CARAIOOOOOO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>April 3, 2025 at 03:37 PM</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>to com infecção urinária nesse caraioooooo</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.907580207294276e+18</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>@SpiderPhanton Brabo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>April 2, 2025 at 11:45 PM</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> brabo</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.905930301328568e+18</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>@sandwichhbread 30🤤</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>March 29, 2025 at 10:29 AM</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.904408179955426e+18</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>acho w to com infeccao urinaria</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>March 25, 2025 at 05:41 AM</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>acho w to com infeccao urinaria</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.902591559507309e+18</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TO COM INFECÇÃO URINÁRIA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>March 20, 2025 at 05:22 AM</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>to com infecção urinária</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.902464439732814e+18</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EU VOU FICAR COM INFECÇÃO URINÁRIA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>March 19, 2025 at 08:57 PM</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>eu vou ficar com infecção urinária</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.902341367289745e+18</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EU CUREI MINHA INFECÇÃO URINÁRIA SEM PRECISAR DE ANTIBIÓTICO https://t.co/pB3yv0GHz2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>March 19, 2025 at 12:48 PM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">eu curei minha infecção urinária sem precisar de antibiótico </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.902045735161307e+18</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>VAI TOMAR NO CU UPA VAI SE FUDER, MINHA TIA ANTES DE MORRER FOI NO MÉDICO E PRA APRESSAR FALARAM QUE ERA INFECÇÃO URINÁRIA E MANDARAM ELA EMBORA!!  VAI SE FODER MANO
+SE TIVESSEM TRATADO ELA, ELA ESTARIA VIVA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>March 18, 2025 at 05:13 PM</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>vai tomar no cu upa vai se fuder minha tia antes de morrer foi no médico e pra apressar falaram que era infecção urinária e mandaram ela embora vai se foder mano se tivessem tratado ela ela estaria viva</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.899595977171813e+18</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PRETA GIL COM INFECÇÃO URINÁRIA !!! https://t.co/bBeNufyP0P</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>March 11, 2025 at 10:59 PM</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">preta gil com infecção urinária </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.895307796263928e+18</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TEM MAIS: CÂNCER DE VAGINA, PNEUMONIA, ASMA, GRIPE, TOSSE, COVID-19, DOENÇA DE CHAGAS,  VELHICE PRECOCE, INFECÇÃO URINÁRIA, HEPATITE, BRONQUITE, COQUELUCHE, MENSTRUAÇÃO, MENOPAUSA, TODOS OS TIPOS DE CÂNCER POSSÍVEL, SARAMPO, CATAPORA, PERDA DE PALADAR, INSÔNIA, TOURETTE E ETC...</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>February 28, 2025 at 02:59 AM</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tem mais câncer de vagina pneumonia asma gripe tosse covid  doença de chagas velhice precoce infecção urinária hepatite bronquite coqueluche menstruação menopausa todos os tipos de câncer possível sarampo catapora perda de paladar insônia tourette e etc </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.894741564997439e+18</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>@wolfsstrr INFECÇÃO URINÁRIA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>February 26, 2025 at 01:29 PM</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> infecção urinária</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.893426721371665e+18</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>@rafalesbian CARAKKKKKKKK ISSO DA INFECÇÃO URINÁRIA DOIDA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>February 22, 2025 at 10:24 PM</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> carakkkkkkkk isso da infecção urinária doida</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.888983512499311e+18</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>@7louisrry YEAH UR GONNA GET INFECÇÃO URINÁRIA IDK THE NAME IN ENGLISH</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>February 10, 2025 at 04:08 PM</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> louisrry yeah ur gonna get infecção urinária idk the name in english</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.88707359835709e+18</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SE EU TIVER COM INFECÇÃO URINÁRIA DNV, EU ME MATO PPRT</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>February 5, 2025 at 09:39 AM</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>se eu tiver com infecção urinária dnv eu me mato pprt</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1.884821215316984e+18</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>VAI EMBORA INFECÇÃO URINÁRIA NÃO TE AGUENTO MAIS DUAS SEMANAS JÁ MORRE DESGRAÇA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>January 30, 2025 at 04:29 AM</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>vai embora infecção urinária não te aguento mais duas semanas já morre desgraça</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.883270772543935e+18</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TIME DESGRAÇADO</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>January 25, 2025 at 09:48 PM</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>time desgraçado</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.883016636187501e+18</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>@sccplaris INFECÇÃO URINÁRIA E CÁLCULO RENAL, FIQUEI TOMANDO INTRAVENOSA E QUASE DESMAIEI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>January 25, 2025 at 04:58 AM</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> infecção urinária e cálculo renal fiquei tomando intravenosa e quase desmaiei</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.882443382154466e+18</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>@nicorinthians10 @oficialsincerao Gyokeres</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>January 23, 2025 at 03:00 PM</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gyokeres</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.882117722483614e+18</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>@TheUselessBIG @samengo_ofc ainda bem q foi só isso</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>January 22, 2025 at 05:26 PM</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ainda bem q foi só isso</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.88144232318965e+18</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>@devilmaycrdeps1 EU FIZ MAS DEUS ME FEZ MULHER COM INFECÇÃO URINÁRIA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>January 20, 2025 at 08:43 PM</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> eu fiz mas deus me fez mulher com infecção urinária</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.881328589033149e+18</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>@updatecharts https://t.co/j1cj2GpVmC</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>January 20, 2025 at 01:11 PM</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.879386482357711e+18</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PORRA DE INFECÇÃO URINÁRIA PRA Q VOLTAR KRL TAVA TUDO INDO BEM MORREEEE INFECÇÃO URINÁRIA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>January 15, 2025 at 04:33 AM</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>porra de infecção urinária pra q voltar krl tava tudo indo bem morreeee infecção urinária</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.878594620399203e+18</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>@Astreylis relaxa aushaushs tenho infeccao urinaria ;-;</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>January 13, 2025 at 12:07 AM</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> relaxa aushaushs tenho infeccao urinaria </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.878480657027933e+18</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>@cristyan_kelwen torcida de twitter no caso</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>January 12, 2025 at 04:34 PM</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> torcida de twitter no caso</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1.878270442789565e+18</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>INFECÇÃO URINÁRIA DNV NAOOOOOOOOOOO💀💀💀💀💀💀💀💀💀💀💀💀</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>January 12, 2025 at 02:39 AM</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>infecção urinária dnv naooooooooooo</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.87793642514586e+18</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>@ErnaniZey @thiagoveigh @maisa top 5 tweets da história</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>January 11, 2025 at 04:31 AM</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> top  tweets da história</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.877797706661311e+18</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>@KingsLeague goat https://t.co/JK3y6x34hp</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>January 10, 2025 at 07:20 PM</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> goat </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>en</t>
         </is>
